--- a/Output/Test/Month_menu.xlsx
+++ b/Output/Test/Month_menu.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sophi\Antarctic-Food-Optimisation\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sophi\Antarctic-Food-Optimisation\Output\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{181AC6F0-4298-4402-AB50-F049082B15FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436CD809-3EB0-4668-9C4F-ECD7D6251556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{469EA8D7-BADF-4FE6-9F5F-7436887DFADC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="283">
   <si>
     <t>date</t>
   </si>
@@ -797,13 +797,100 @@
   </si>
   <si>
     <t>52 bananaIceCream</t>
+  </si>
+  <si>
+    <t>Meat</t>
+  </si>
+  <si>
+    <t>Milk</t>
+  </si>
+  <si>
+    <t>Egg</t>
+  </si>
+  <si>
+    <t>Gluten</t>
+  </si>
+  <si>
+    <t>Nuts</t>
+  </si>
+  <si>
+    <t>Seeds</t>
+  </si>
+  <si>
+    <t>Added sugar</t>
+  </si>
+  <si>
+    <t>A - vegan</t>
+  </si>
+  <si>
+    <t>B - coeliac</t>
+  </si>
+  <si>
+    <t>C - sensitive to all</t>
+  </si>
+  <si>
+    <t>breakfast</t>
+  </si>
+  <si>
+    <t>fullEnglish</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>unsuitable</t>
+  </si>
+  <si>
+    <t>suitable</t>
+  </si>
+  <si>
+    <t>veganPorridge</t>
+  </si>
+  <si>
+    <t>yoghurt</t>
+  </si>
+  <si>
+    <t>lunch</t>
+  </si>
+  <si>
+    <t>mushroomSoup</t>
+  </si>
+  <si>
+    <t>pepperoniPizza</t>
+  </si>
+  <si>
+    <t>vegChowMein</t>
+  </si>
+  <si>
+    <t>lunch side</t>
+  </si>
+  <si>
+    <t>bakedPotato</t>
+  </si>
+  <si>
+    <t>roastPotatoes</t>
+  </si>
+  <si>
+    <t>dessert</t>
+  </si>
+  <si>
+    <t>berryCrumble</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>tea side</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -819,16 +906,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -836,16 +947,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1160,10 +1294,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D68805-6F1E-4113-A128-70B3B00308D9}">
-  <dimension ref="A1:BN68"/>
+  <dimension ref="A1:BN71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AG38" sqref="AG38"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1188,94 +1322,94 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="3">
         <v>44474</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="3">
         <v>44475</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="3">
         <v>44476</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="3">
         <v>44477</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="3">
         <v>44478</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="3">
         <v>44479</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="3">
         <v>44480</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="3">
         <v>44481</v>
       </c>
-      <c r="J1" s="4">
+      <c r="J1" s="3">
         <v>44482</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="3">
         <v>44483</v>
       </c>
-      <c r="L1" s="4">
+      <c r="L1" s="3">
         <v>44484</v>
       </c>
-      <c r="M1" s="4">
+      <c r="M1" s="3">
         <v>44485</v>
       </c>
-      <c r="N1" s="4">
+      <c r="N1" s="3">
         <v>44486</v>
       </c>
-      <c r="O1" s="4">
+      <c r="O1" s="3">
         <v>44487</v>
       </c>
-      <c r="P1" s="4">
+      <c r="P1" s="3">
         <v>44488</v>
       </c>
-      <c r="Q1" s="4">
+      <c r="Q1" s="3">
         <v>44489</v>
       </c>
-      <c r="R1" s="4">
+      <c r="R1" s="3">
         <v>44490</v>
       </c>
-      <c r="S1" s="4">
+      <c r="S1" s="3">
         <v>44491</v>
       </c>
-      <c r="T1" s="4">
+      <c r="T1" s="3">
         <v>44492</v>
       </c>
-      <c r="U1" s="4">
+      <c r="U1" s="3">
         <v>44493</v>
       </c>
-      <c r="V1" s="4">
+      <c r="V1" s="3">
         <v>44494</v>
       </c>
-      <c r="W1" s="4">
+      <c r="W1" s="3">
         <v>44495</v>
       </c>
-      <c r="X1" s="4">
+      <c r="X1" s="3">
         <v>44496</v>
       </c>
-      <c r="Y1" s="4">
+      <c r="Y1" s="3">
         <v>44497</v>
       </c>
-      <c r="Z1" s="4">
+      <c r="Z1" s="3">
         <v>44498</v>
       </c>
-      <c r="AA1" s="4">
+      <c r="AA1" s="3">
         <v>44499</v>
       </c>
-      <c r="AB1" s="4">
+      <c r="AB1" s="3">
         <v>44500</v>
       </c>
-      <c r="AC1" s="4">
+      <c r="AC1" s="3">
         <v>44501</v>
       </c>
-      <c r="AD1" s="4">
+      <c r="AD1" s="3">
         <v>44502</v>
       </c>
-      <c r="AE1" s="4">
+      <c r="AE1" s="3">
         <v>44503</v>
       </c>
     </row>
@@ -5214,24 +5348,113 @@
       <c r="BN55" s="1"/>
     </row>
     <row r="56" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="C56" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="L56" s="5" t="s">
+        <v>263</v>
+      </c>
       <c r="AE56" s="1"/>
     </row>
     <row r="57" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A57" s="2"/>
+      <c r="A57" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D57" t="s">
+        <v>267</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="F57" t="s">
+        <v>267</v>
+      </c>
+      <c r="G57" t="s">
+        <v>267</v>
+      </c>
+      <c r="H57" t="s">
+        <v>267</v>
+      </c>
+      <c r="I57" t="s">
+        <v>267</v>
+      </c>
+      <c r="J57" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="K57" t="s">
+        <v>269</v>
+      </c>
+      <c r="L57" s="8" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="58" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A58" s="3"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
+      <c r="A58" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C58" t="s">
+        <v>267</v>
+      </c>
+      <c r="D58" t="s">
+        <v>267</v>
+      </c>
+      <c r="E58" t="s">
+        <v>267</v>
+      </c>
+      <c r="F58" t="s">
+        <v>267</v>
+      </c>
+      <c r="G58" t="s">
+        <v>267</v>
+      </c>
+      <c r="H58" t="s">
+        <v>267</v>
+      </c>
+      <c r="I58" t="s">
+        <v>267</v>
+      </c>
+      <c r="J58" t="s">
+        <v>269</v>
+      </c>
+      <c r="K58" t="s">
+        <v>269</v>
+      </c>
+      <c r="L58" t="s">
+        <v>269</v>
+      </c>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
@@ -5252,18 +5475,42 @@
       <c r="AD58" s="1"/>
     </row>
     <row r="59" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A59" s="3"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
+      <c r="A59" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C59" t="s">
+        <v>267</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E59" t="s">
+        <v>267</v>
+      </c>
+      <c r="F59" t="s">
+        <v>267</v>
+      </c>
+      <c r="G59" t="s">
+        <v>267</v>
+      </c>
+      <c r="H59" t="s">
+        <v>267</v>
+      </c>
+      <c r="I59" t="s">
+        <v>267</v>
+      </c>
+      <c r="J59" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="K59" t="s">
+        <v>269</v>
+      </c>
+      <c r="L59" s="8" t="s">
+        <v>268</v>
+      </c>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
@@ -5273,42 +5520,346 @@
       <c r="S59" s="1"/>
     </row>
     <row r="60" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A60" s="2"/>
+      <c r="A60" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C60" t="s">
+        <v>267</v>
+      </c>
+      <c r="D60" t="s">
+        <v>267</v>
+      </c>
+      <c r="E60" t="s">
+        <v>267</v>
+      </c>
+      <c r="F60" t="s">
+        <v>267</v>
+      </c>
+      <c r="G60" t="s">
+        <v>267</v>
+      </c>
+      <c r="H60" t="s">
+        <v>267</v>
+      </c>
+      <c r="I60" t="s">
+        <v>267</v>
+      </c>
+      <c r="J60" t="s">
+        <v>269</v>
+      </c>
+      <c r="K60" t="s">
+        <v>269</v>
+      </c>
+      <c r="L60" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="61" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A61" s="2"/>
+      <c r="A61" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E61" t="s">
+        <v>267</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G61" t="s">
+        <v>267</v>
+      </c>
+      <c r="H61" t="s">
+        <v>267</v>
+      </c>
+      <c r="I61" t="s">
+        <v>267</v>
+      </c>
+      <c r="J61" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="K61" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="L61" s="8" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="62" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A62" s="2"/>
+      <c r="A62" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C62" t="s">
+        <v>267</v>
+      </c>
+      <c r="D62" t="s">
+        <v>267</v>
+      </c>
+      <c r="E62" t="s">
+        <v>267</v>
+      </c>
+      <c r="F62" t="s">
+        <v>267</v>
+      </c>
+      <c r="G62" t="s">
+        <v>267</v>
+      </c>
+      <c r="H62" t="s">
+        <v>267</v>
+      </c>
+      <c r="I62" t="s">
+        <v>267</v>
+      </c>
+      <c r="J62" t="s">
+        <v>269</v>
+      </c>
+      <c r="K62" t="s">
+        <v>269</v>
+      </c>
+      <c r="L62" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="63" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A63" s="2"/>
+      <c r="A63" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C63" t="s">
+        <v>267</v>
+      </c>
+      <c r="D63" t="s">
+        <v>267</v>
+      </c>
+      <c r="E63" t="s">
+        <v>267</v>
+      </c>
+      <c r="F63" t="s">
+        <v>267</v>
+      </c>
+      <c r="G63" t="s">
+        <v>267</v>
+      </c>
+      <c r="H63" t="s">
+        <v>267</v>
+      </c>
+      <c r="I63" t="s">
+        <v>267</v>
+      </c>
+      <c r="J63" t="s">
+        <v>269</v>
+      </c>
+      <c r="K63" t="s">
+        <v>269</v>
+      </c>
+      <c r="L63" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="64" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A64" s="2"/>
+      <c r="A64" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C64" t="s">
+        <v>267</v>
+      </c>
+      <c r="D64" t="s">
+        <v>267</v>
+      </c>
+      <c r="E64" t="s">
+        <v>267</v>
+      </c>
+      <c r="F64" t="s">
+        <v>267</v>
+      </c>
+      <c r="G64" t="s">
+        <v>267</v>
+      </c>
+      <c r="H64" t="s">
+        <v>267</v>
+      </c>
+      <c r="I64" t="s">
+        <v>267</v>
+      </c>
+      <c r="J64" t="s">
+        <v>269</v>
+      </c>
+      <c r="K64" t="s">
+        <v>269</v>
+      </c>
+      <c r="L64" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A65" s="2"/>
+      <c r="A65" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C65" t="s">
+        <v>267</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E65" t="s">
+        <v>267</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G65" t="s">
+        <v>267</v>
+      </c>
+      <c r="H65" t="s">
+        <v>267</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="J65" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="K65" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="L65" s="8" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A66" s="2"/>
+      <c r="A66" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C66" t="s">
+        <v>267</v>
+      </c>
+      <c r="D66" t="s">
+        <v>267</v>
+      </c>
+      <c r="E66" t="s">
+        <v>267</v>
+      </c>
+      <c r="F66" t="s">
+        <v>267</v>
+      </c>
+      <c r="G66" t="s">
+        <v>267</v>
+      </c>
+      <c r="H66" t="s">
+        <v>267</v>
+      </c>
+      <c r="I66" t="s">
+        <v>267</v>
+      </c>
+      <c r="J66" t="s">
+        <v>269</v>
+      </c>
+      <c r="K66" t="s">
+        <v>269</v>
+      </c>
+      <c r="L66" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E67" s="2"/>
+      <c r="A67" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E67" t="s">
+        <v>267</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G67" t="s">
+        <v>267</v>
+      </c>
+      <c r="H67" t="s">
+        <v>267</v>
+      </c>
+      <c r="I67" t="s">
+        <v>267</v>
+      </c>
+      <c r="J67" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="K67" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="L67" s="8" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
+      <c r="A68" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C68" t="s">
+        <v>267</v>
+      </c>
+      <c r="D68" t="s">
+        <v>267</v>
+      </c>
+      <c r="E68" t="s">
+        <v>267</v>
+      </c>
+      <c r="F68" t="s">
+        <v>267</v>
+      </c>
+      <c r="G68" t="s">
+        <v>267</v>
+      </c>
+      <c r="H68" t="s">
+        <v>267</v>
+      </c>
+      <c r="I68" t="s">
+        <v>267</v>
+      </c>
+      <c r="J68" t="s">
+        <v>269</v>
+      </c>
+      <c r="K68" t="s">
+        <v>269</v>
+      </c>
+      <c r="L68" t="s">
+        <v>269</v>
+      </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -5316,6 +5867,120 @@
       <c r="Q68" s="2"/>
       <c r="R68" s="2"/>
     </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A69" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C69" t="s">
+        <v>267</v>
+      </c>
+      <c r="D69" t="s">
+        <v>267</v>
+      </c>
+      <c r="E69" t="s">
+        <v>267</v>
+      </c>
+      <c r="F69" t="s">
+        <v>267</v>
+      </c>
+      <c r="G69" t="s">
+        <v>267</v>
+      </c>
+      <c r="H69" t="s">
+        <v>267</v>
+      </c>
+      <c r="I69" t="s">
+        <v>267</v>
+      </c>
+      <c r="J69" t="s">
+        <v>269</v>
+      </c>
+      <c r="K69" t="s">
+        <v>269</v>
+      </c>
+      <c r="L69" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A70" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C70" t="s">
+        <v>267</v>
+      </c>
+      <c r="D70" t="s">
+        <v>267</v>
+      </c>
+      <c r="E70" t="s">
+        <v>267</v>
+      </c>
+      <c r="F70" t="s">
+        <v>267</v>
+      </c>
+      <c r="G70" t="s">
+        <v>267</v>
+      </c>
+      <c r="H70" t="s">
+        <v>267</v>
+      </c>
+      <c r="I70" t="s">
+        <v>267</v>
+      </c>
+      <c r="J70" t="s">
+        <v>269</v>
+      </c>
+      <c r="K70" t="s">
+        <v>269</v>
+      </c>
+      <c r="L70" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A71" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C71" t="s">
+        <v>267</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E71" t="s">
+        <v>267</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G71" t="s">
+        <v>267</v>
+      </c>
+      <c r="H71" t="s">
+        <v>267</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="J71" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="K71" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="L71" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
